--- a/hubbound/transit/hubbound.xlsx
+++ b/hubbound/transit/hubbound.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\hubbound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\hubbound\transit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA9656-5737-4A54-B4C7-40459E53D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2343583E-374F-4FBB-A8E2-214ACCDFE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>PATH</t>
   </si>
@@ -144,13 +144,16 @@
     <t>AMTRAK GRAND TOTAL</t>
   </si>
   <si>
-    <t>NJ BUS</t>
+    <t>Data Source: NYMTC Hub Bound Travel Appendix III</t>
   </si>
   <si>
-    <t>YEAR</t>
+    <t>NJ Bus</t>
   </si>
   <si>
-    <t>Data Source: NYMTC Hub Bound Travel Appendix III</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Amtrak</t>
   </si>
 </sst>
 </file>
@@ -430,11 +433,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -693,8 +697,170 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -717,174 +883,13 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{E2C95E00-C4AE-4CB6-A391-3185ECDF2FEB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1165,10 +1170,10 @@
   <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,347 +1200,347 @@
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" s="51"/>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="114" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="97" t="s">
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="116"/>
+      <c r="AK1" s="116"/>
+      <c r="AL1" s="116"/>
+      <c r="AM1" s="116"/>
+      <c r="AN1" s="116"/>
+      <c r="AO1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="98"/>
-      <c r="BE1" s="98"/>
-      <c r="BF1" s="98"/>
-      <c r="BG1" s="89" t="s">
+      <c r="AP1" s="130"/>
+      <c r="AQ1" s="130"/>
+      <c r="AR1" s="130"/>
+      <c r="AS1" s="130"/>
+      <c r="AT1" s="130"/>
+      <c r="AU1" s="130"/>
+      <c r="AV1" s="130"/>
+      <c r="AW1" s="130"/>
+      <c r="AX1" s="130"/>
+      <c r="AY1" s="130"/>
+      <c r="AZ1" s="130"/>
+      <c r="BA1" s="130"/>
+      <c r="BB1" s="130"/>
+      <c r="BC1" s="130"/>
+      <c r="BD1" s="130"/>
+      <c r="BE1" s="130"/>
+      <c r="BF1" s="130"/>
+      <c r="BG1" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" s="90"/>
-      <c r="BI1" s="90"/>
-      <c r="BJ1" s="91" t="s">
+      <c r="BH1" s="144"/>
+      <c r="BI1" s="144"/>
+      <c r="BJ1" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="BK1" s="91"/>
-      <c r="BL1" s="91"/>
+      <c r="BK1" s="145"/>
+      <c r="BL1" s="145"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="112" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="119" t="s">
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="119" t="s">
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="119"/>
-      <c r="AQ2" s="119"/>
-      <c r="AR2" s="119"/>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="119"/>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="94" t="s">
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="113"/>
+      <c r="AR2" s="113"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="113"/>
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="96" t="s">
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="90"/>
-      <c r="BH2" s="90"/>
-      <c r="BI2" s="90"/>
-      <c r="BJ2" s="91"/>
-      <c r="BK2" s="91"/>
-      <c r="BL2" s="91"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="144"/>
+      <c r="BH2" s="144"/>
+      <c r="BI2" s="144"/>
+      <c r="BJ2" s="145"/>
+      <c r="BK2" s="145"/>
+      <c r="BL2" s="145"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="133" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="120" t="s">
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="121" t="s">
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="120" t="s">
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="120" t="s">
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="121" t="s">
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="122"/>
-      <c r="AO3" s="102" t="s">
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="104" t="s">
+      <c r="AP3" s="132"/>
+      <c r="AQ3" s="132"/>
+      <c r="AR3" s="132"/>
+      <c r="AS3" s="132"/>
+      <c r="AT3" s="132"/>
+      <c r="AU3" s="132"/>
+      <c r="AV3" s="132"/>
+      <c r="AW3" s="132"/>
+      <c r="AX3" s="132"/>
+      <c r="AY3" s="132"/>
+      <c r="AZ3" s="132"/>
+      <c r="BA3" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="BB3" s="105"/>
-      <c r="BC3" s="106"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="91"/>
-      <c r="BK3" s="91"/>
-      <c r="BL3" s="91"/>
+      <c r="BB3" s="134"/>
+      <c r="BC3" s="135"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="144"/>
+      <c r="BH3" s="144"/>
+      <c r="BI3" s="144"/>
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="145"/>
+      <c r="BL3" s="145"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="146" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="147"/>
-      <c r="F4" s="121" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="122"/>
-      <c r="H4" s="135" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="136"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="135" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="139"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="141" t="s">
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="142"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="144" t="s">
+      <c r="R4" s="107"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="144"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="131" t="s">
+      <c r="U4" s="109"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="123" t="s">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="125"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="99"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="126" t="s">
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="128"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="99" t="s">
+      <c r="AO4" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="116" t="s">
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="99" t="s">
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="99" t="s">
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="107" t="s">
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="111"/>
-      <c r="BG4" s="92" t="s">
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="138"/>
+      <c r="BD4" s="139"/>
+      <c r="BE4" s="139"/>
+      <c r="BF4" s="140"/>
+      <c r="BG4" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="BH4" s="87" t="s">
+      <c r="BH4" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="BI4" s="87" t="s">
+      <c r="BI4" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="BJ4" s="87" t="s">
+      <c r="BJ4" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="87" t="s">
+      <c r="BK4" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="87" t="s">
+      <c r="BL4" s="141" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1712,12 +1717,12 @@
       <c r="BF5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BG5" s="93"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="88"/>
-      <c r="BJ5" s="88"/>
-      <c r="BK5" s="88"/>
-      <c r="BL5" s="88"/>
+      <c r="BG5" s="147"/>
+      <c r="BH5" s="142"/>
+      <c r="BI5" s="142"/>
+      <c r="BJ5" s="142"/>
+      <c r="BK5" s="142"/>
+      <c r="BL5" s="142"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
@@ -5837,9 +5842,289 @@
         <v>19855</v>
       </c>
     </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A26" s="52">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="64">
+        <v>156</v>
+      </c>
+      <c r="C26" s="64">
+        <v>1873</v>
+      </c>
+      <c r="D26" s="65">
+        <v>4574</v>
+      </c>
+      <c r="E26" s="66">
+        <v>55670</v>
+      </c>
+      <c r="F26" s="67">
+        <v>4730</v>
+      </c>
+      <c r="G26" s="67">
+        <v>57543</v>
+      </c>
+      <c r="H26" s="77">
+        <v>252</v>
+      </c>
+      <c r="I26" s="77">
+        <v>1915</v>
+      </c>
+      <c r="J26" s="77">
+        <v>15568</v>
+      </c>
+      <c r="K26" s="78">
+        <v>242</v>
+      </c>
+      <c r="L26" s="78">
+        <v>1694</v>
+      </c>
+      <c r="M26" s="78">
+        <v>15371</v>
+      </c>
+      <c r="N26" s="79">
+        <v>494</v>
+      </c>
+      <c r="O26" s="79">
+        <v>3609</v>
+      </c>
+      <c r="P26" s="79">
+        <v>30939</v>
+      </c>
+      <c r="Q26" s="71">
+        <v>98</v>
+      </c>
+      <c r="R26" s="71">
+        <v>867</v>
+      </c>
+      <c r="S26" s="71">
+        <v>12612</v>
+      </c>
+      <c r="T26" s="72">
+        <v>56</v>
+      </c>
+      <c r="U26" s="72">
+        <v>481</v>
+      </c>
+      <c r="V26" s="72">
+        <v>5478</v>
+      </c>
+      <c r="W26" s="73">
+        <f>Q26+T26</f>
+        <v>154</v>
+      </c>
+      <c r="X26" s="73">
+        <f t="shared" ref="X26" si="30">R26+U26</f>
+        <v>1348</v>
+      </c>
+      <c r="Y26" s="73">
+        <f t="shared" ref="Y26" si="31">S26+V26</f>
+        <v>18090</v>
+      </c>
+      <c r="Z26" s="71">
+        <v>33</v>
+      </c>
+      <c r="AA26" s="71">
+        <v>179</v>
+      </c>
+      <c r="AB26" s="71">
+        <v>1718</v>
+      </c>
+      <c r="AC26" s="74">
+        <f>W26+Z26</f>
+        <v>187</v>
+      </c>
+      <c r="AD26" s="74">
+        <f t="shared" ref="AD26" si="32">X26+AA26</f>
+        <v>1527</v>
+      </c>
+      <c r="AE26" s="74">
+        <f t="shared" ref="AE26" si="33">Y26+AB26</f>
+        <v>19808</v>
+      </c>
+      <c r="AF26" s="71">
+        <v>224</v>
+      </c>
+      <c r="AG26" s="71">
+        <v>2300</v>
+      </c>
+      <c r="AH26" s="71">
+        <v>35270</v>
+      </c>
+      <c r="AI26" s="72">
+        <v>30</v>
+      </c>
+      <c r="AJ26" s="72">
+        <v>164</v>
+      </c>
+      <c r="AK26" s="72">
+        <v>1502</v>
+      </c>
+      <c r="AL26" s="75">
+        <v>254</v>
+      </c>
+      <c r="AM26" s="75">
+        <v>2464</v>
+      </c>
+      <c r="AN26" s="75">
+        <v>36772</v>
+      </c>
+      <c r="AO26" s="84">
+        <v>50</v>
+      </c>
+      <c r="AP26" s="84">
+        <v>374</v>
+      </c>
+      <c r="AQ26" s="84">
+        <v>4344</v>
+      </c>
+      <c r="AR26" s="85">
+        <v>55</v>
+      </c>
+      <c r="AS26" s="85">
+        <v>440</v>
+      </c>
+      <c r="AT26" s="85">
+        <v>6206</v>
+      </c>
+      <c r="AU26" s="84">
+        <v>57</v>
+      </c>
+      <c r="AV26" s="84">
+        <v>435</v>
+      </c>
+      <c r="AW26" s="84">
+        <v>7057</v>
+      </c>
+      <c r="AX26" s="76">
+        <f>AU26+AR26+AO26</f>
+        <v>162</v>
+      </c>
+      <c r="AY26" s="76">
+        <f t="shared" ref="AY26" si="34">AV26+AS26+AP26</f>
+        <v>1249</v>
+      </c>
+      <c r="AZ26" s="76">
+        <f t="shared" ref="AZ26" si="35">AW26+AT26+AQ26</f>
+        <v>17607</v>
+      </c>
+      <c r="BA26" s="85">
+        <v>11</v>
+      </c>
+      <c r="BB26" s="85">
+        <v>55</v>
+      </c>
+      <c r="BC26" s="85">
+        <v>571</v>
+      </c>
+      <c r="BD26" s="76">
+        <f>AX26+BA26</f>
+        <v>173</v>
+      </c>
+      <c r="BE26" s="76">
+        <f t="shared" ref="BE26" si="36">AY26+BB26</f>
+        <v>1304</v>
+      </c>
+      <c r="BF26" s="76">
+        <f t="shared" ref="BF26" si="37">AZ26+BC26</f>
+        <v>18178</v>
+      </c>
+      <c r="BG26" s="76">
+        <f>W26+AF26+AX26</f>
+        <v>540</v>
+      </c>
+      <c r="BH26" s="76">
+        <f t="shared" ref="BH26" si="38">X26+AG26+AY26</f>
+        <v>4897</v>
+      </c>
+      <c r="BI26" s="76">
+        <f t="shared" ref="BI26" si="39">Y26+AH26+AZ26</f>
+        <v>70967</v>
+      </c>
+      <c r="BJ26" s="76">
+        <f t="shared" ref="BJ26" si="40">Z26+AI26+BA26</f>
+        <v>74</v>
+      </c>
+      <c r="BK26" s="76">
+        <f t="shared" ref="BK26" si="41">AA26+AJ26+BB26</f>
+        <v>398</v>
+      </c>
+      <c r="BL26" s="76">
+        <f t="shared" ref="BL26" si="42">AB26+AK26+BC26</f>
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A27" s="52">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="84"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="85"/>
+      <c r="AS27" s="85"/>
+      <c r="AT27" s="85"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="85"/>
+      <c r="BB27" s="85"/>
+      <c r="BC27" s="85"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="76"/>
+      <c r="BG27" s="76"/>
+      <c r="BH27" s="76"/>
+      <c r="BI27" s="76"/>
+      <c r="BJ27" s="76"/>
+      <c r="BK27" s="76"/>
+      <c r="BL27" s="76"/>
+    </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5847,6 +6132,33 @@
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="43">
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BG1:BI3"/>
+    <mergeCell ref="BJ1:BL3"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF3"/>
+    <mergeCell ref="AO1:BF1"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="AO3:AZ3"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BF4"/>
+    <mergeCell ref="H2:P3"/>
+    <mergeCell ref="AF1:AN2"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AO2:AZ2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="W4:Y4"/>
@@ -5863,33 +6175,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q2:AE2"/>
-    <mergeCell ref="H2:P3"/>
-    <mergeCell ref="AF1:AN2"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AO2:AZ2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF3"/>
-    <mergeCell ref="AO1:BF1"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="AO3:AZ3"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BF4"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BG1:BI3"/>
-    <mergeCell ref="BJ1:BL3"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5898,17 +6183,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2038F-80D5-4460-929A-77034D43D46C}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5923,10 +6215,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -6507,6 +6799,35 @@
       <c r="G21" s="86">
         <f>'Daily Entries'!G25</f>
         <v>212146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="52">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="86">
+        <f>'Daily Entries'!P26</f>
+        <v>30939</v>
+      </c>
+      <c r="C22" s="86">
+        <f>'Daily Entries'!Y26</f>
+        <v>18090</v>
+      </c>
+      <c r="D22" s="86">
+        <f>'Daily Entries'!AH26</f>
+        <v>35270</v>
+      </c>
+      <c r="E22" s="86">
+        <f>'Daily Entries'!AZ26</f>
+        <v>17607</v>
+      </c>
+      <c r="F22" s="86">
+        <f>'Daily Entries'!BL26</f>
+        <v>3791</v>
+      </c>
+      <c r="G22" s="86">
+        <f>'Daily Entries'!G26</f>
+        <v>57543</v>
       </c>
     </row>
   </sheetData>

--- a/hubbound/transit/hubbound.xlsx
+++ b/hubbound/transit/hubbound.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\hubbound\transit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2343583E-374F-4FBB-A8E2-214ACCDFE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22FC423-FC72-4843-A9B2-993F7B4A950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>PATH</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Amtrak</t>
+  </si>
+  <si>
+    <t>NJT Rail</t>
   </si>
 </sst>
 </file>
@@ -700,12 +703,135 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,24 +847,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,111 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1170,7 +1173,7 @@
   <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
@@ -1200,347 +1203,347 @@
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" s="51"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="116" t="s">
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="116"/>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
-      <c r="AL1" s="116"/>
-      <c r="AM1" s="116"/>
-      <c r="AN1" s="116"/>
-      <c r="AO1" s="129" t="s">
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="130"/>
-      <c r="AU1" s="130"/>
-      <c r="AV1" s="130"/>
-      <c r="AW1" s="130"/>
-      <c r="AX1" s="130"/>
-      <c r="AY1" s="130"/>
-      <c r="AZ1" s="130"/>
-      <c r="BA1" s="130"/>
-      <c r="BB1" s="130"/>
-      <c r="BC1" s="130"/>
-      <c r="BD1" s="130"/>
-      <c r="BE1" s="130"/>
-      <c r="BF1" s="130"/>
-      <c r="BG1" s="143" t="s">
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="98"/>
+      <c r="BE1" s="98"/>
+      <c r="BF1" s="98"/>
+      <c r="BG1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" s="144"/>
-      <c r="BI1" s="144"/>
-      <c r="BJ1" s="145" t="s">
+      <c r="BH1" s="90"/>
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
+      <c r="BK1" s="91"/>
+      <c r="BL1" s="91"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="114" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="113" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="113" t="s">
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="88" t="s">
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="119"/>
+      <c r="AR2" s="119"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="119"/>
+      <c r="AY2" s="119"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="127"/>
-      <c r="BD2" s="128" t="s">
+      <c r="BB2" s="95"/>
+      <c r="BC2" s="95"/>
+      <c r="BD2" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="144"/>
-      <c r="BH2" s="144"/>
-      <c r="BI2" s="144"/>
-      <c r="BJ2" s="145"/>
-      <c r="BK2" s="145"/>
-      <c r="BL2" s="145"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="90"/>
+      <c r="BH2" s="90"/>
+      <c r="BI2" s="90"/>
+      <c r="BJ2" s="91"/>
+      <c r="BK2" s="91"/>
+      <c r="BL2" s="91"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="92" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="94" t="s">
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="95" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="94" t="s">
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="94" t="s">
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="95" t="s">
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="131" t="s">
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132"/>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="132"/>
-      <c r="AV3" s="132"/>
-      <c r="AW3" s="132"/>
-      <c r="AX3" s="132"/>
-      <c r="AY3" s="132"/>
-      <c r="AZ3" s="132"/>
-      <c r="BA3" s="133" t="s">
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BB3" s="134"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="144"/>
-      <c r="BH3" s="144"/>
-      <c r="BI3" s="144"/>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="145"/>
-      <c r="BL3" s="145"/>
+      <c r="BB3" s="105"/>
+      <c r="BC3" s="106"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="91"/>
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="91"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="100" t="s">
+      <c r="G4" s="122"/>
+      <c r="H4" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="100" t="s">
+      <c r="I4" s="136"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103" t="s">
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="106" t="s">
+      <c r="O4" s="139"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="109" t="s">
+      <c r="R4" s="142"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="90" t="s">
+      <c r="U4" s="144"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="97" t="s">
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="99"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="125"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="124" t="s">
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="126"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="128"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="15"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="118" t="s">
+      <c r="AO4" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="121" t="s">
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="118" t="s">
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="118" t="s">
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="120"/>
-      <c r="BA4" s="136" t="s">
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" s="137"/>
-      <c r="BC4" s="138"/>
-      <c r="BD4" s="139"/>
-      <c r="BE4" s="139"/>
-      <c r="BF4" s="140"/>
-      <c r="BG4" s="146" t="s">
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="BH4" s="141" t="s">
+      <c r="BH4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="BI4" s="141" t="s">
+      <c r="BI4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="BJ4" s="141" t="s">
+      <c r="BJ4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="141" t="s">
+      <c r="BK4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="141" t="s">
+      <c r="BL4" s="87" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1717,12 +1720,12 @@
       <c r="BF5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BG5" s="147"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="142"/>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="142"/>
+      <c r="BG5" s="93"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="88"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="88"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
@@ -6132,33 +6135,6 @@
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="43">
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BG1:BI3"/>
-    <mergeCell ref="BJ1:BL3"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF3"/>
-    <mergeCell ref="AO1:BF1"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="AO3:AZ3"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BF4"/>
-    <mergeCell ref="H2:P3"/>
-    <mergeCell ref="AF1:AN2"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AO2:AZ2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B1:AE1"/>
     <mergeCell ref="W4:Y4"/>
@@ -6175,6 +6151,33 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q2:AE2"/>
+    <mergeCell ref="H2:P3"/>
+    <mergeCell ref="AF1:AN2"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AO2:AZ2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF3"/>
+    <mergeCell ref="AO1:BF1"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="AO3:AZ3"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BF4"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BG1:BI3"/>
+    <mergeCell ref="BJ1:BL3"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6186,7 +6189,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6206,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
